--- a/Data/aearep-1683/candidatepackages.xlsx
+++ b/Data/aearep-1683/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="64">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -25,12 +25,6 @@
     <t>estout</t>
   </si>
   <si>
-    <t>filelist</t>
-  </si>
-  <si>
-    <t>unique</t>
-  </si>
-  <si>
     <t>binscatter</t>
   </si>
   <si>
@@ -40,18 +34,15 @@
     <t>missing</t>
   </si>
   <si>
-    <t>network</t>
-  </si>
-  <si>
     <t>seq</t>
   </si>
   <si>
+    <t>title</t>
+  </si>
+  <si>
     <t>sq</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
     <t>cluster</t>
   </si>
   <si>
@@ -61,48 +52,36 @@
     <t>spell</t>
   </si>
   <si>
+    <t>median</t>
+  </si>
+  <si>
     <t>index</t>
   </si>
   <si>
-    <t>lars</t>
-  </si>
-  <si>
-    <t>median</t>
-  </si>
-  <si>
     <t>delta</t>
   </si>
   <si>
+    <t>bys</t>
+  </si>
+  <si>
+    <t>combine</t>
+  </si>
+  <si>
+    <t>pre</t>
+  </si>
+  <si>
     <t>rolling2</t>
   </si>
   <si>
-    <t>combine</t>
-  </si>
-  <si>
-    <t>bys</t>
-  </si>
-  <si>
-    <t>pre</t>
-  </si>
-  <si>
     <t>rolling3</t>
   </si>
   <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>zip</t>
+    <t>cub</t>
   </si>
   <si>
     <t>dash</t>
   </si>
   <si>
-    <t>cub</t>
-  </si>
-  <si>
     <t>addtex</t>
   </si>
   <si>
@@ -118,9 +97,6 @@
     <t>dirname</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1683</t>
-  </si>
-  <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-1683/NBER/code</t>
   </si>
   <si>
@@ -133,118 +109,103 @@
     <t>/home/lv39/Workspace/AEA/all//aearep-1683/model codes/Output and Plots</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1683/tools</t>
-  </si>
-  <si>
     <t>filename</t>
   </si>
   <si>
-    <t>PII_stata_scan.do</t>
+    <t>fig_a6.do</t>
+  </si>
+  <si>
+    <t>fig_a7.do</t>
+  </si>
+  <si>
+    <t>figs_2_3_a4_a5.do</t>
+  </si>
+  <si>
+    <t>figs_4_7.do</t>
+  </si>
+  <si>
+    <t>figs_5_6_a1_a2_a3.do</t>
+  </si>
+  <si>
+    <t>main-bis.do</t>
+  </si>
+  <si>
+    <t>main.do</t>
+  </si>
+  <si>
+    <t>table_1.do</t>
+  </si>
+  <si>
+    <t>table_2.do</t>
+  </si>
+  <si>
+    <t>table_4.do</t>
+  </si>
+  <si>
+    <t>table_a3.do</t>
+  </si>
+  <si>
+    <t>table_a4.do</t>
+  </si>
+  <si>
+    <t>table_a5.do</t>
+  </si>
+  <si>
+    <t>tables_3_a1_a2.do</t>
+  </si>
+  <si>
+    <t>tx_cleaning.do</t>
+  </si>
+  <si>
+    <t>txmo_cleaning.do</t>
+  </si>
+  <si>
+    <t>model_plots.do</t>
+  </si>
+  <si>
+    <t>RD_graphs_biweekly.do</t>
+  </si>
+  <si>
+    <t>RD_graphs_semimonthly.do</t>
+  </si>
+  <si>
+    <t>Step_graphs_bi.do</t>
+  </si>
+  <si>
+    <t>Step_graphs_semi.do</t>
   </si>
   <si>
     <t>config.do</t>
   </si>
   <si>
-    <t>fig_a6.do</t>
-  </si>
-  <si>
-    <t>fig_a7.do</t>
-  </si>
-  <si>
-    <t>figs_2_3_a4_a5.do</t>
-  </si>
-  <si>
-    <t>figs_4_7.do</t>
-  </si>
-  <si>
-    <t>figs_5_6_a1_a2_a3.do</t>
-  </si>
-  <si>
-    <t>main-bis.do</t>
-  </si>
-  <si>
-    <t>main.do</t>
-  </si>
-  <si>
-    <t>table_1.do</t>
-  </si>
-  <si>
-    <t>table_2.do</t>
-  </si>
-  <si>
-    <t>table_4.do</t>
-  </si>
-  <si>
-    <t>table_a3.do</t>
-  </si>
-  <si>
-    <t>table_a4.do</t>
-  </si>
-  <si>
-    <t>table_a5.do</t>
+    <t>data_cleaning.do</t>
+  </si>
+  <si>
+    <t>fig_2_3_a4_a5.do</t>
+  </si>
+  <si>
+    <t>table_1_summary_stats_bi.do</t>
+  </si>
+  <si>
+    <t>table_2_controls_bi.do</t>
+  </si>
+  <si>
+    <t>table_4_heuristics.do</t>
+  </si>
+  <si>
+    <t>table_a3_summary_semi.do</t>
+  </si>
+  <si>
+    <t>table_a4_semi.do</t>
+  </si>
+  <si>
+    <t>table_a5_semi.do</t>
   </si>
   <si>
     <t>tables_3_a1_a2.do</t>
   </si>
   <si>
-    <t>tx_cleaning.do</t>
-  </si>
-  <si>
-    <t>txmo_cleaning.do</t>
-  </si>
-  <si>
-    <t>config.do</t>
-  </si>
-  <si>
     <t>model_plots.do</t>
-  </si>
-  <si>
-    <t>RD_graphs_biweekly.do</t>
-  </si>
-  <si>
-    <t>RD_graphs_semimonthly.do</t>
-  </si>
-  <si>
-    <t>Step_graphs_bi.do</t>
-  </si>
-  <si>
-    <t>Step_graphs_semi.do</t>
-  </si>
-  <si>
-    <t>config.do</t>
-  </si>
-  <si>
-    <t>data_cleaning.do</t>
-  </si>
-  <si>
-    <t>fig_2_3_a4_a5.do</t>
-  </si>
-  <si>
-    <t>table_1_summary_stats_bi.do</t>
-  </si>
-  <si>
-    <t>table_2_controls_bi.do</t>
-  </si>
-  <si>
-    <t>table_4_heuristics.do</t>
-  </si>
-  <si>
-    <t>table_a3_summary_semi.do</t>
-  </si>
-  <si>
-    <t>table_a4_semi.do</t>
-  </si>
-  <si>
-    <t>table_a5_semi.do</t>
-  </si>
-  <si>
-    <t>tables_3_a1_a2.do</t>
-  </si>
-  <si>
-    <t>model_plots.do</t>
-  </si>
-  <si>
-    <t>convert_graphs.do</t>
   </si>
 </sst>
 </file>
@@ -288,7 +249,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D23"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -296,13 +257,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
@@ -310,7 +271,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -334,7 +295,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -346,7 +307,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -358,7 +319,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>32</v>
+        <v>293</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -370,10 +331,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>100</v>
+        <v>411</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.13586777448654175</v>
       </c>
       <c r="D7"/>
     </row>
@@ -382,10 +343,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>267</v>
+        <v>499</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.16495867073535919</v>
       </c>
       <c r="D8"/>
     </row>
@@ -394,10 +355,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>279</v>
+        <v>525</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.1735537201166153</v>
       </c>
       <c r="D9"/>
     </row>
@@ -406,10 +367,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>385</v>
+        <v>563</v>
       </c>
       <c r="C10">
-        <v>0.12765252590179443</v>
+        <v>0.18611569702625275</v>
       </c>
       <c r="D10"/>
     </row>
@@ -418,10 +379,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>563</v>
+        <v>712</v>
       </c>
       <c r="C11">
-        <v>0.18667109310626984</v>
+        <v>0.2353719025850296</v>
       </c>
       <c r="D11"/>
     </row>
@@ -430,10 +391,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>565</v>
+        <v>751</v>
       </c>
       <c r="C12">
-        <v>0.18733422458171844</v>
+        <v>0.24826446175575256</v>
       </c>
       <c r="D12"/>
     </row>
@@ -442,10 +403,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>566</v>
+        <v>955</v>
       </c>
       <c r="C13">
-        <v>0.18766577541828156</v>
+        <v>0.31570246815681458</v>
       </c>
       <c r="D13"/>
     </row>
@@ -454,10 +415,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>745</v>
+        <v>998</v>
       </c>
       <c r="C14">
-        <v>0.24701590836048126</v>
+        <v>0.32991734147071838</v>
       </c>
       <c r="D14"/>
     </row>
@@ -466,10 +427,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>826</v>
+        <v>1125</v>
       </c>
       <c r="C15">
-        <v>0.27387267351150513</v>
+        <v>0.37190082669258118</v>
       </c>
       <c r="D15"/>
     </row>
@@ -478,10 +439,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>985</v>
+        <v>1306</v>
       </c>
       <c r="C16">
-        <v>0.32659152150154114</v>
+        <v>0.43173554539680481</v>
       </c>
       <c r="D16"/>
     </row>
@@ -490,10 +451,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1124</v>
+        <v>1414</v>
       </c>
       <c r="C17">
-        <v>0.37267905473709106</v>
+        <v>0.46743801236152649</v>
       </c>
       <c r="D17"/>
     </row>
@@ -502,10 +463,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1133</v>
+        <v>1428</v>
       </c>
       <c r="C18">
-        <v>0.37566313147544861</v>
+        <v>0.47206610441207886</v>
       </c>
       <c r="D18"/>
     </row>
@@ -514,10 +475,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1194</v>
+        <v>1494</v>
       </c>
       <c r="C19">
-        <v>0.39588859677314758</v>
+        <v>0.49388429522514343</v>
       </c>
       <c r="D19"/>
     </row>
@@ -526,10 +487,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1391</v>
+        <v>1721</v>
       </c>
       <c r="C20">
-        <v>0.46120688319206238</v>
+        <v>0.56892561912536621</v>
       </c>
       <c r="D20"/>
     </row>
@@ -538,10 +499,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1423</v>
+        <v>2380</v>
       </c>
       <c r="C21">
-        <v>0.47181698679924011</v>
+        <v>0.7867768406867981</v>
       </c>
       <c r="D21"/>
     </row>
@@ -550,10 +511,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1472</v>
+        <v>2436</v>
       </c>
       <c r="C22">
-        <v>0.48806366324424744</v>
+        <v>0.80528926849365234</v>
       </c>
       <c r="D22"/>
     </row>
@@ -562,96 +523,12 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1553</v>
+        <v>2976</v>
       </c>
       <c r="C23">
-        <v>0.51492041349411011</v>
+        <v>0.98380166292190552</v>
       </c>
       <c r="D23"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>1782</v>
-      </c>
-      <c r="C24">
-        <v>0.59084880352020264</v>
-      </c>
-      <c r="D24"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>1798</v>
-      </c>
-      <c r="C25">
-        <v>0.5961538553237915</v>
-      </c>
-      <c r="D25"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>1817</v>
-      </c>
-      <c r="C26">
-        <v>0.60245358943939209</v>
-      </c>
-      <c r="D26"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>1859</v>
-      </c>
-      <c r="C27">
-        <v>0.61637932062149048</v>
-      </c>
-      <c r="D27"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>2424</v>
-      </c>
-      <c r="C28">
-        <v>0.80371350049972534</v>
-      </c>
-      <c r="D28"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>2453</v>
-      </c>
-      <c r="C29">
-        <v>0.81332892179489136</v>
-      </c>
-      <c r="D29"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>2869</v>
-      </c>
-      <c r="C30">
-        <v>0.95125997066497803</v>
-      </c>
-      <c r="D30"/>
     </row>
   </sheetData>
 </worksheet>
@@ -659,311 +536,271 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B33"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
         <v>35</v>
-      </c>
-      <c r="B5" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
